--- a/Assets/Excel/Materials.xlsx
+++ b/Assets/Excel/Materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,7 +61,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B;S;C</t>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -69,19 +73,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list{string}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Materials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list{obj{string:name; float:min; float:max; float:def}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B;0;3;1};{S;0;3;1};{C;0;3;1};{_Gamma;0;3;1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Gray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{_BlurOffset;0;0.5;0}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -457,14 +469,14 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5:E7"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.125" style="2" bestFit="1" customWidth="1"/>
@@ -477,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -488,10 +500,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -499,7 +511,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -516,7 +528,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
@@ -539,18 +551,21 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
